--- a/StructureDefinition-open-elis-specimen.xlsx
+++ b/StructureDefinition-open-elis-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T02:21:28+00:00</t>
+    <t>2023-02-20T12:30:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-open-elis-specimen.xlsx
+++ b/StructureDefinition-open-elis-specimen.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="491">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T12:30:13+00:00</t>
+    <t>2023-03-03T05:49:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -455,9 +455,6 @@
     <t>Specimen.identifier</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
@@ -484,13 +481,13 @@
     <t>SPM-2</t>
   </si>
   <si>
-    <t>Specimen.identifier:labNo</t>
-  </si>
-  <si>
-    <t>labNo</t>
-  </si>
-  <si>
-    <t>Specimen.identifier:labNo.id</t>
+    <t>Specimen.identifier:uuid</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>Specimen.identifier:uuid.id</t>
   </si>
   <si>
     <t>Specimen.identifier.id</t>
@@ -512,7 +509,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Specimen.identifier:labNo.extension</t>
+    <t>Specimen.identifier:uuid.extension</t>
   </si>
   <si>
     <t>Specimen.identifier.extension</t>
@@ -531,7 +528,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Specimen.identifier:labNo.use</t>
+    <t>Specimen.identifier:uuid.use</t>
   </si>
   <si>
     <t>Specimen.identifier.use</t>
@@ -564,7 +561,7 @@
     <t>Role.code or implied by context</t>
   </si>
   <si>
-    <t>Specimen.identifier:labNo.type</t>
+    <t>Specimen.identifier:uuid.type</t>
   </si>
   <si>
     <t>Specimen.identifier.type</t>
@@ -601,7 +598,7 @@
     <t>CX.5</t>
   </si>
   <si>
-    <t>Specimen.identifier:labNo.system</t>
+    <t>Specimen.identifier:uuid.system</t>
   </si>
   <si>
     <t>Specimen.identifier.system</t>
@@ -619,7 +616,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://openelis-global.org/sampleItem_labNo</t>
+    <t>http://openelis-global.org/sampleItem_uuid</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -634,7 +631,7 @@
     <t>CX.4 / EI-2-4</t>
   </si>
   <si>
-    <t>Specimen.identifier:labNo.value</t>
+    <t>Specimen.identifier:uuid.value</t>
   </si>
   <si>
     <t>Specimen.identifier.value</t>
@@ -661,7 +658,7 @@
     <t>CX.1 / EI.1</t>
   </si>
   <si>
-    <t>Specimen.identifier:labNo.period</t>
+    <t>Specimen.identifier:uuid.period</t>
   </si>
   <si>
     <t>Specimen.identifier.period</t>
@@ -686,7 +683,7 @@
     <t>CX.7 + CX.8</t>
   </si>
   <si>
-    <t>Specimen.identifier:labNo.assigner</t>
+    <t>Specimen.identifier:uuid.assigner</t>
   </si>
   <si>
     <t>Specimen.identifier.assigner</t>
@@ -714,39 +711,6 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
-    <t>Specimen.identifier:uuid</t>
-  </si>
-  <si>
-    <t>uuid</t>
-  </si>
-  <si>
-    <t>Specimen.identifier:uuid.id</t>
-  </si>
-  <si>
-    <t>Specimen.identifier:uuid.extension</t>
-  </si>
-  <si>
-    <t>Specimen.identifier:uuid.use</t>
-  </si>
-  <si>
-    <t>Specimen.identifier:uuid.type</t>
-  </si>
-  <si>
-    <t>Specimen.identifier:uuid.system</t>
-  </si>
-  <si>
-    <t>http://openelis-global.org/sampleItem_uuid</t>
-  </si>
-  <si>
-    <t>Specimen.identifier:uuid.value</t>
-  </si>
-  <si>
-    <t>Specimen.identifier:uuid.period</t>
-  </si>
-  <si>
-    <t>Specimen.identifier:uuid.assigner</t>
-  </si>
-  <si>
     <t>Specimen.accessionIdentifier</t>
   </si>
   <si>
@@ -801,10 +765,7 @@
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
-    <t>Codes providing the status/availability of a specimen.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/specimen-status|4.0.1</t>
+    <t>http://i-tech-uw.github.io/openelis-global-ig/ValueSet/OpenElisSpecimenStatusVS</t>
   </si>
   <si>
     <t>status</t>
@@ -1858,7 +1819,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN87"/>
+  <dimension ref="A1:AN78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1892,7 +1853,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.6953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="75.48828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -3067,7 +3028,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>76</v>
@@ -3082,13 +3043,13 @@
         <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3127,14 +3088,14 @@
         <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>141</v>
@@ -3152,13 +3113,13 @@
         <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>74</v>
@@ -3166,13 +3127,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>141</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>74</v>
@@ -3194,13 +3155,13 @@
         <v>84</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3266,13 +3227,13 @@
         <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>74</v>
@@ -3280,10 +3241,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3306,13 +3267,13 @@
         <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3363,22 +3324,22 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
@@ -3392,10 +3353,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3424,7 +3385,7 @@
         <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N14" t="s" s="2">
         <v>133</v>
@@ -3465,19 +3426,19 @@
         <v>74</v>
       </c>
       <c r="AB14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AC14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AC14" t="s" s="2">
+      <c r="AD14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3492,7 +3453,7 @@
         <v>135</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -3506,10 +3467,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3535,16 +3496,16 @@
         <v>104</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -3569,31 +3530,31 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -3608,7 +3569,7 @@
         <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3622,10 +3583,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3648,19 +3609,19 @@
         <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3685,31 +3646,31 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3724,13 +3685,13 @@
         <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>74</v>
@@ -3738,10 +3699,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3767,16 +3728,16 @@
         <v>98</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>74</v>
@@ -3786,46 +3747,46 @@
         <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="T17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="T17" t="s" s="2">
+      <c r="U17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3840,13 +3801,13 @@
         <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>74</v>
@@ -3854,10 +3815,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3880,16 +3841,16 @@
         <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3903,43 +3864,43 @@
         <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3954,13 +3915,13 @@
         <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>74</v>
@@ -3968,10 +3929,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3994,13 +3955,13 @@
         <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4051,7 +4012,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -4066,13 +4027,13 @@
         <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>74</v>
@@ -4080,10 +4041,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4106,16 +4067,16 @@
         <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4165,7 +4126,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -4180,13 +4141,13 @@
         <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>74</v>
@@ -4194,14 +4155,12 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>74</v>
       </c>
@@ -4222,13 +4181,13 @@
         <v>84</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4279,13 +4238,13 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>74</v>
@@ -4294,13 +4253,13 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>149</v>
-      </c>
       <c r="AM21" t="s" s="2">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>74</v>
@@ -4308,10 +4267,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4334,13 +4293,13 @@
         <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4391,22 +4350,22 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -4420,10 +4379,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4452,7 +4411,7 @@
         <v>131</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>133</v>
@@ -4493,19 +4452,19 @@
         <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AC23" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AC23" t="s" s="2">
+      <c r="AD23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4520,7 +4479,7 @@
         <v>135</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -4534,10 +4493,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>167</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4563,16 +4522,16 @@
         <v>104</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>74</v>
@@ -4597,31 +4556,31 @@
         <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Z24" t="s" s="2">
+      <c r="AA24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -4636,7 +4595,7 @@
         <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4650,10 +4609,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4676,19 +4635,19 @@
         <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -4713,31 +4672,31 @@
         <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4752,13 +4711,13 @@
         <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>74</v>
@@ -4766,10 +4725,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4777,7 +4736,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>83</v>
@@ -4795,16 +4754,16 @@
         <v>98</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -4814,46 +4773,46 @@
         <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>233</v>
+        <v>74</v>
       </c>
       <c r="T26" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4868,13 +4827,13 @@
         <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>74</v>
@@ -4882,10 +4841,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4908,16 +4867,16 @@
         <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4931,43 +4890,43 @@
         <v>74</v>
       </c>
       <c r="T27" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4982,24 +4941,24 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="AN27" t="s" s="2">
-        <v>74</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5022,13 +4981,13 @@
         <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5079,7 +5038,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -5094,13 +5053,13 @@
         <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>74</v>
@@ -5108,10 +5067,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5134,16 +5093,16 @@
         <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5193,7 +5152,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -5208,13 +5167,13 @@
         <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -5222,10 +5181,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5242,21 +5201,23 @@
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -5281,13 +5242,11 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
@@ -5305,7 +5264,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -5320,13 +5279,13 @@
         <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>74</v>
@@ -5334,10 +5293,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5345,7 +5304,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>83</v>
@@ -5357,18 +5316,20 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -5393,13 +5354,13 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
@@ -5417,7 +5378,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>158</v>
+        <v>247</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5429,16 +5390,16 @@
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>159</v>
+        <v>254</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>74</v>
+        <v>255</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>74</v>
+        <v>256</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>74</v>
@@ -5446,21 +5407,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -5472,17 +5433,15 @@
         <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -5519,34 +5478,34 @@
         <v>74</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
@@ -5560,46 +5519,44 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5623,52 +5580,52 @@
         <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>74</v>
@@ -5676,10 +5633,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5690,7 +5647,7 @@
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
@@ -5702,19 +5659,19 @@
         <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>179</v>
+        <v>260</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>180</v>
+        <v>261</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>181</v>
+        <v>262</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>182</v>
+        <v>263</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>183</v>
+        <v>264</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -5739,13 +5696,13 @@
         <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>74</v>
@@ -5763,13 +5720,13 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>74</v>
@@ -5778,13 +5735,13 @@
         <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>176</v>
+        <v>266</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>74</v>
@@ -5792,10 +5749,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5815,23 +5772,19 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>74</v>
       </c>
@@ -5843,7 +5796,7 @@
         <v>74</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>74</v>
@@ -5879,7 +5832,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5891,16 +5844,16 @@
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>74</v>
@@ -5908,21 +5861,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5931,19 +5884,19 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5957,7 +5910,7 @@
         <v>74</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>74</v>
@@ -5981,51 +5934,51 @@
         <v>74</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>248</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6048,16 +6001,20 @@
         <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>211</v>
+        <v>98</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>212</v>
+        <v>271</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>74</v>
       </c>
@@ -6105,7 +6062,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -6120,13 +6077,13 @@
         <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>74</v>
@@ -6134,10 +6091,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6160,16 +6117,16 @@
         <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>221</v>
+        <v>280</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6219,7 +6176,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -6234,13 +6191,13 @@
         <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>225</v>
+        <v>284</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>74</v>
@@ -6248,10 +6205,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6259,7 +6216,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>83</v>
@@ -6268,7 +6225,7 @@
         <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>84</v>
@@ -6277,15 +6234,15 @@
         <v>104</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>74</v>
       </c>
@@ -6309,13 +6266,13 @@
         <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>255</v>
+        <v>74</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>256</v>
+        <v>74</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>74</v>
@@ -6333,7 +6290,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -6348,24 +6305,24 @@
         <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>74</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6373,7 +6330,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>83</v>
@@ -6388,18 +6345,18 @@
         <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
       </c>
@@ -6423,13 +6380,13 @@
         <v>74</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>265</v>
+        <v>74</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>74</v>
@@ -6447,7 +6404,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -6462,24 +6419,24 @@
         <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>268</v>
+        <v>74</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>74</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6499,19 +6456,23 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>155</v>
+        <v>302</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>156</v>
+        <v>303</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>74</v>
       </c>
@@ -6559,7 +6520,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>158</v>
+        <v>307</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -6571,16 +6532,16 @@
         <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>159</v>
+        <v>308</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>74</v>
+        <v>309</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>74</v>
@@ -6588,21 +6549,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -6611,21 +6572,23 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>131</v>
+        <v>311</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>162</v>
+        <v>312</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6661,40 +6624,40 @@
         <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>165</v>
+        <v>315</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>159</v>
+        <v>316</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>74</v>
@@ -6702,10 +6665,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6713,10 +6676,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -6728,19 +6691,17 @@
         <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>274</v>
+        <v>320</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>277</v>
+        <v>322</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -6789,13 +6750,13 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>74</v>
@@ -6804,24 +6765,24 @@
         <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>74</v>
+        <v>324</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>280</v>
+        <v>74</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>74</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6829,7 +6790,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>83</v>
@@ -6841,16 +6802,16 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>155</v>
+        <v>327</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>156</v>
+        <v>328</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>157</v>
+        <v>329</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6901,7 +6862,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>158</v>
+        <v>326</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6913,16 +6874,16 @@
         <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>159</v>
+        <v>330</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>74</v>
+        <v>331</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>74</v>
+        <v>332</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>74</v>
@@ -6930,14 +6891,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6956,16 +6917,16 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>130</v>
+        <v>334</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>131</v>
+        <v>335</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>162</v>
+        <v>336</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>133</v>
+        <v>337</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7003,19 +6964,19 @@
         <v>74</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>165</v>
+        <v>333</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -7027,10 +6988,10 @@
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>159</v>
+        <v>338</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -7044,10 +7005,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>283</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>283</v>
+        <v>339</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7055,7 +7016,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>83</v>
@@ -7067,23 +7028,21 @@
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>98</v>
+        <v>340</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>285</v>
+        <v>342</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>74</v>
       </c>
@@ -7131,13 +7090,13 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>74</v>
@@ -7146,24 +7105,24 @@
         <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>74</v>
+        <v>345</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>290</v>
+        <v>346</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>74</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7171,7 +7130,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>83</v>
@@ -7183,20 +7142,18 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>155</v>
+        <v>349</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>292</v>
+        <v>350</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>74</v>
@@ -7245,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7260,24 +7217,24 @@
         <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>296</v>
+        <v>352</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>297</v>
+        <v>353</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>74</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7297,21 +7254,19 @@
         <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>300</v>
+        <v>156</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>301</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>74</v>
       </c>
@@ -7359,7 +7314,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>302</v>
+        <v>157</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -7371,38 +7326,38 @@
         <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>303</v>
+        <v>158</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>304</v>
+        <v>74</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>305</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>74</v>
@@ -7411,21 +7366,21 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>307</v>
+        <v>131</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>74</v>
       </c>
@@ -7473,74 +7428,74 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>310</v>
+        <v>164</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>311</v>
+        <v>158</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>312</v>
+        <v>74</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>313</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>74</v>
+        <v>358</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>315</v>
+        <v>130</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>318</v>
+        <v>133</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>319</v>
+        <v>139</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>74</v>
@@ -7589,28 +7544,28 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>321</v>
+        <v>127</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>74</v>
@@ -7618,10 +7573,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7644,20 +7599,16 @@
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>155</v>
+        <v>363</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7705,7 +7656,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7720,13 +7671,13 @@
         <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>74</v>
+        <v>367</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>74</v>
@@ -7734,10 +7685,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7760,18 +7711,16 @@
         <v>84</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>335</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>74</v>
       </c>
@@ -7807,19 +7756,17 @@
         <v>74</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>74</v>
+        <v>373</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7834,26 +7781,28 @@
         <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>74</v>
+        <v>376</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>338</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>74</v>
       </c>
@@ -7874,13 +7823,13 @@
         <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7931,7 +7880,7 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
@@ -7946,13 +7895,13 @@
         <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>74</v>
@@ -7960,10 +7909,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7974,7 +7923,7 @@
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
@@ -7983,20 +7932,18 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -8045,13 +7992,13 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>74</v>
@@ -8060,10 +8007,10 @@
         <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>351</v>
+        <v>74</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>74</v>
+        <v>375</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>74</v>
@@ -8074,10 +8021,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8085,7 +8032,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>83</v>
@@ -8100,17 +8047,15 @@
         <v>74</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>74</v>
@@ -8159,13 +8104,13 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>74</v>
@@ -8174,24 +8119,24 @@
         <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>358</v>
+        <v>74</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>360</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8199,7 +8144,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>83</v>
@@ -8214,13 +8159,13 @@
         <v>74</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>362</v>
+        <v>178</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>364</v>
+        <v>391</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8247,13 +8192,13 @@
         <v>74</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>74</v>
+        <v>392</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>74</v>
+        <v>393</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>74</v>
@@ -8271,7 +8216,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -8286,24 +8231,24 @@
         <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>367</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8326,15 +8271,17 @@
         <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>156</v>
+        <v>397</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>74</v>
@@ -8359,13 +8306,13 @@
         <v>74</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>74</v>
+        <v>400</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>74</v>
+        <v>401</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>74</v>
@@ -8383,7 +8330,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>158</v>
+        <v>396</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8395,16 +8342,16 @@
         <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>159</v>
+        <v>402</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>74</v>
+        <v>403</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>74</v>
@@ -8412,21 +8359,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>74</v>
@@ -8435,21 +8382,23 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>130</v>
+        <v>405</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>131</v>
+        <v>406</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>162</v>
+        <v>407</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>74</v>
       </c>
@@ -8473,13 +8422,13 @@
         <v>74</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>74</v>
+        <v>183</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>74</v>
+        <v>410</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>74</v>
+        <v>411</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>74</v>
@@ -8497,28 +8446,28 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>165</v>
+        <v>404</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>74</v>
+        <v>412</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>74</v>
@@ -8526,14 +8475,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>371</v>
+        <v>74</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8546,26 +8495,22 @@
         <v>74</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>130</v>
+        <v>349</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>74</v>
       </c>
@@ -8613,7 +8558,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8625,10 +8570,10 @@
         <v>74</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>127</v>
+        <v>416</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -8642,10 +8587,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8665,16 +8610,16 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>376</v>
+        <v>154</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>377</v>
+        <v>155</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>378</v>
+        <v>156</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8725,7 +8670,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>375</v>
+        <v>157</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8737,16 +8682,16 @@
         <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>379</v>
+        <v>158</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>380</v>
+        <v>74</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>381</v>
+        <v>74</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>74</v>
@@ -8754,21 +8699,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>74</v>
@@ -8777,18 +8722,20 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>340</v>
+        <v>130</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>383</v>
+        <v>131</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -8825,38 +8772,40 @@
         <v>74</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AC61" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>386</v>
+        <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>382</v>
+        <v>164</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>387</v>
+        <v>158</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>388</v>
+        <v>74</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>74</v>
@@ -8864,44 +8813,46 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>74</v>
+        <v>358</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>340</v>
+        <v>130</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>74</v>
       </c>
@@ -8949,28 +8900,28 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>387</v>
+        <v>127</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>388</v>
+        <v>74</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>74</v>
@@ -8978,10 +8929,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9001,16 +8952,16 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>393</v>
+        <v>154</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>394</v>
+        <v>421</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9061,7 +9012,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -9076,10 +9027,10 @@
         <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>74</v>
+        <v>423</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>388</v>
+        <v>74</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>74</v>
@@ -9090,10 +9041,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9116,13 +9067,13 @@
         <v>74</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>397</v>
+        <v>178</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9149,13 +9100,13 @@
         <v>74</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>74</v>
+        <v>427</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>74</v>
+        <v>428</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>74</v>
@@ -9173,7 +9124,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9188,13 +9139,13 @@
         <v>96</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>400</v>
+        <v>254</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>401</v>
+        <v>74</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>74</v>
@@ -9202,10 +9153,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9216,7 +9167,7 @@
         <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>74</v>
@@ -9228,13 +9179,13 @@
         <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>179</v>
+        <v>430</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9261,13 +9212,13 @@
         <v>74</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>405</v>
+        <v>74</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>406</v>
+        <v>74</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>74</v>
@@ -9285,13 +9236,13 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>74</v>
@@ -9300,13 +9251,13 @@
         <v>96</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>74</v>
@@ -9314,10 +9265,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9340,17 +9291,15 @@
         <v>74</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>179</v>
+        <v>436</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>74</v>
@@ -9375,13 +9324,13 @@
         <v>74</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>413</v>
+        <v>74</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>414</v>
+        <v>74</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>74</v>
@@ -9399,7 +9348,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -9414,13 +9363,13 @@
         <v>96</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>416</v>
+        <v>74</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>74</v>
@@ -9428,10 +9377,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9442,7 +9391,7 @@
         <v>75</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>74</v>
@@ -9451,23 +9400,19 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>418</v>
+        <v>349</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>74</v>
       </c>
@@ -9491,13 +9436,13 @@
         <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>423</v>
+        <v>74</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>424</v>
+        <v>74</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>74</v>
@@ -9515,13 +9460,13 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>74</v>
@@ -9530,13 +9475,13 @@
         <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>74</v>
+        <v>442</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>425</v>
+        <v>74</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>74</v>
@@ -9544,10 +9489,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9558,7 +9503,7 @@
         <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>74</v>
@@ -9570,13 +9515,13 @@
         <v>74</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>362</v>
+        <v>154</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>427</v>
+        <v>155</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>428</v>
+        <v>156</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9627,22 +9572,22 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>426</v>
+        <v>157</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>429</v>
+        <v>158</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>74</v>
@@ -9656,21 +9601,21 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>74</v>
@@ -9682,15 +9627,17 @@
         <v>74</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>74</v>
@@ -9739,22 +9686,22 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>74</v>
@@ -9768,14 +9715,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>129</v>
+        <v>358</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9788,24 +9735,26 @@
         <v>74</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>131</v>
+        <v>359</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>162</v>
+        <v>360</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="O70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>74</v>
       </c>
@@ -9853,7 +9802,7 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>165</v>
+        <v>361</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
@@ -9868,7 +9817,7 @@
         <v>135</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>74</v>
@@ -9882,14 +9831,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>371</v>
+        <v>74</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9902,26 +9851,22 @@
         <v>74</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>372</v>
+        <v>447</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>74</v>
       </c>
@@ -9969,7 +9914,7 @@
         <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>374</v>
+        <v>446</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>75</v>
@@ -9981,16 +9926,16 @@
         <v>74</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>74</v>
+        <v>449</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>74</v>
@@ -9998,10 +9943,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10024,13 +9969,13 @@
         <v>74</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10081,7 +10026,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -10096,7 +10041,7 @@
         <v>96</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>74</v>
@@ -10110,10 +10055,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10136,13 +10081,13 @@
         <v>74</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10169,13 +10114,13 @@
         <v>74</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>74</v>
@@ -10193,7 +10138,7 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
@@ -10208,13 +10153,13 @@
         <v>96</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>74</v>
+        <v>459</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>74</v>
@@ -10222,10 +10167,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10236,7 +10181,7 @@
         <v>75</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>74</v>
@@ -10248,13 +10193,13 @@
         <v>74</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>443</v>
+        <v>384</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10305,13 +10250,13 @@
         <v>74</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>74</v>
@@ -10320,13 +10265,13 @@
         <v>96</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>74</v>
@@ -10334,10 +10279,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10360,13 +10305,13 @@
         <v>74</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>449</v>
+        <v>384</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10417,7 +10362,7 @@
         <v>74</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>75</v>
@@ -10432,13 +10377,13 @@
         <v>96</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>387</v>
+        <v>468</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>74</v>
+        <v>469</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>74</v>
@@ -10446,10 +10391,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10460,7 +10405,7 @@
         <v>75</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>74</v>
@@ -10472,13 +10417,13 @@
         <v>74</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>362</v>
+        <v>471</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10505,13 +10450,13 @@
         <v>74</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>74</v>
+        <v>251</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>74</v>
+        <v>474</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>74</v>
+        <v>475</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>74</v>
@@ -10529,13 +10474,13 @@
         <v>74</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>74</v>
@@ -10544,13 +10489,13 @@
         <v>96</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>74</v>
+        <v>477</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>74</v>
@@ -10558,10 +10503,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10572,7 +10517,7 @@
         <v>75</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>74</v>
@@ -10581,19 +10526,23 @@
         <v>74</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>156</v>
+        <v>479</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>74</v>
       </c>
@@ -10617,13 +10566,13 @@
         <v>74</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>74</v>
+        <v>183</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>74</v>
+        <v>483</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>74</v>
+        <v>484</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>74</v>
@@ -10641,28 +10590,28 @@
         <v>74</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>158</v>
+        <v>478</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>74</v>
+        <v>485</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>74</v>
@@ -10670,14 +10619,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10696,17 +10645,15 @@
         <v>74</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>130</v>
+        <v>487</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>74</v>
@@ -10755,7 +10702,7 @@
         <v>74</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>165</v>
+        <v>486</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>75</v>
@@ -10767,1034 +10714,18 @@
         <v>74</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>159</v>
+        <v>489</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>74</v>
+        <v>490</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="P79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="P86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AN87" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/StructureDefinition-open-elis-specimen.xlsx
+++ b/StructureDefinition-open-elis-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T05:49:08+00:00</t>
+    <t>2023-03-03T05:49:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-open-elis-specimen.xlsx
+++ b/StructureDefinition-open-elis-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T05:49:15+00:00</t>
+    <t>2023-03-05T22:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-open-elis-specimen.xlsx
+++ b/StructureDefinition-open-elis-specimen.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/open-elis-specimen</t>
+    <t>http://digi-uw.github.io/openelis-global-ig/StructureDefinition/open-elis-specimen</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:37:57+00:00</t>
+    <t>2025-05-14T18:24:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -999,7 +999,7 @@
     <t>Specimen.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/openelis-patient)
+    <t xml:space="preserve">Reference(http://digi-uw.github.io/openelis-global-ig/StructureDefinition/openelis-patient)
 </t>
   </si>
   <si>
@@ -1065,7 +1065,7 @@
     <t>Specimen.request</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://i-tech-uw.github.io/openelis-global-ig/StructureDefinition/openelis-service-request)
+    <t xml:space="preserve">Reference(http://digi-uw.github.io/openelis-global-ig/StructureDefinition/openelis-service-request)
 </t>
   </si>
   <si>
@@ -1832,17 +1832,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.75390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.40234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.65625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.7734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.95703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1851,26 +1851,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.6953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.70703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.75" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.46875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="42.28125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="54.51171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="36.24609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="46.734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-open-elis-specimen.xlsx
+++ b/StructureDefinition-open-elis-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-14T18:24:04+00:00</t>
+    <t>2025-05-14T18:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
